--- a/Лабораторные работы/№ 5/№ 5.xlsx
+++ b/Лабораторные работы/№ 5/№ 5.xlsx
@@ -5,53 +5,209 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Разработки разработчика\Lesson_repo\Лабораторные работы\№ 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разработки разработчика\Lesson_repo\Лабораторные работы\№ 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD45EF9-448D-40ED-8EA5-5E0567F406D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00632BA-3E25-4403-9AF6-B9ECECE6CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Задание 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание 0" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Задача 2" sheetId="6" r:id="rId4"/>
+    <sheet name="Задача 3" sheetId="7" r:id="rId5"/>
+    <sheet name="Задача 4" sheetId="8" r:id="rId6"/>
+    <sheet name="Лист8" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Задание 1'!$B$13:$E$15</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Задача 2'!$B$13:$D$15</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Задача 3'!$B$12:$E$13</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Задача 4'!$B$12:$E$14</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$13:$F$16</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Задание 1'!$B$13:$E$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Задача 2'!$B$13:$D$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Задача 3'!$B$12:$E$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Задача 4'!$B$12:$E$14</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$13:$F$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Задание 1'!$B$16:$E$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Задача 2'!$B$16:$D$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Задача 3'!$B$14:$E$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Задача 4'!$B$15:$E$15</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$B$17:$F$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Задание 1'!$F$13:$F$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Задача 2'!$E$13:$E$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Задача 3'!$F$12:$F$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Задача 4'!$F$12:$F$14</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$G$13:$G$16</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Задание 0'!$B$22</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Задание 1'!$B$19</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Задача 2'!$B$19</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Задача 3'!$B$17</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Задача 4'!$B$18</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$20</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Задание 1'!$B$17:$E$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Задача 2'!$B$17:$D$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Задача 3'!$B$15:$E$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Задача 4'!$B$16:$E$16</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$B$18:$F$18</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Задание 1'!$G$13:$G$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Задача 2'!$F$13:$F$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Задача 3'!$G$12:$G$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Задача 4'!$G$12:$G$14</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$H$13:$H$16</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>Стоимость перевозок</t>
   </si>
@@ -426,7 +582,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H20"/>
+      <selection sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12A12BA-C276-41D1-89B0-189FEF1BD464}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,4 +1276,1077 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144FFBA5-4305-4471-B181-D71EF0D24543}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f ca="1">SUM(B13:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F16" ca="1" si="0">SUM(B14:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>190</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>130</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B13:B15)</f>
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:E16" si="1">SUM(C13:C15)</f>
+        <v>190</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>190</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>130</v>
+      </c>
+      <c r="G17">
+        <f>MIN(G13:G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <f>SUMPRODUCT(B13:E15,B4:E6)</f>
+        <v>5060</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E86A44F-3E57-4C78-A493-FA932691DB48}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f ca="1">SUM(B13:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f ca="1">SUM(B14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>190</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <f ca="1">SUM(B15:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B13:B15)</f>
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="0">SUM(C13:C15)</f>
+        <v>190</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <f ca="1">SUM(B16:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <f>MIN(F13:F16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <f>SUMPRODUCT(B13:D15,B4:D6)</f>
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67E97CF-9BAF-4532-BAC0-DB9E278B7BB2}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>40.000000499999999</v>
+      </c>
+      <c r="D12">
+        <v>30.000000499999999</v>
+      </c>
+      <c r="E12">
+        <v>55.000000499999999</v>
+      </c>
+      <c r="F12">
+        <f ca="1">SUM(B12:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>40.000000499999999</v>
+      </c>
+      <c r="D13">
+        <v>30.000000499999999</v>
+      </c>
+      <c r="E13">
+        <v>55.000000499999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" ca="1" si="0">SUM(B13:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B12:B13)</f>
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C12:C13)</f>
+        <v>80.000000999999997</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D12:D13)</f>
+        <v>60.000000999999997</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E12:E13)</f>
+        <v>110.000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <f>MIN(G12:G14)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f>SUMPRODUCT(B12:E13,B4:E5)</f>
+        <v>2040.0000235000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC917F7C-6B90-48EB-B7C0-4D1924CFD088}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>49.999999999999979</v>
+      </c>
+      <c r="E12">
+        <v>110.00000000000003</v>
+      </c>
+      <c r="F12">
+        <f>SUM(B12:E12)</f>
+        <v>160</v>
+      </c>
+      <c r="G12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>120.00000000000003</v>
+      </c>
+      <c r="C13">
+        <v>19.999999999999972</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>SUM(B13:E13)</f>
+        <v>140</v>
+      </c>
+      <c r="G13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>30.000000000000039</v>
+      </c>
+      <c r="D14">
+        <v>140</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>SUM(B14:E14)</f>
+        <v>170.00000000000003</v>
+      </c>
+      <c r="G14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B12:B14)</f>
+        <v>120.00000000000003</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C12:C14)</f>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D12:D14)</f>
+        <v>189.99999999999997</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E12:E14)</f>
+        <v>110.00000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>190</v>
+      </c>
+      <c r="E16">
+        <v>110</v>
+      </c>
+      <c r="G16">
+        <f>MIN(G12:G15)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <f>SUMPRODUCT(B12:E14,B4:E6)</f>
+        <v>1330.0000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF640621-193E-4D25-B6FF-C865F3E5E425}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Лабораторные работы/№ 5/№ 5.xlsx
+++ b/Лабораторные работы/№ 5/№ 5.xlsx
@@ -8,206 +8,431 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разработки разработчика\Lesson_repo\Лабораторные работы\№ 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00632BA-3E25-4403-9AF6-B9ECECE6CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47763420-12A7-46D9-9FDA-54D298EE5EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Задание 0" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание 0 - не то" sheetId="2" r:id="rId2"/>
     <sheet name="Задание 1" sheetId="3" r:id="rId3"/>
     <sheet name="Задача 2" sheetId="6" r:id="rId4"/>
     <sheet name="Задача 3" sheetId="7" r:id="rId5"/>
     <sheet name="Задача 4" sheetId="8" r:id="rId6"/>
-    <sheet name="Лист8" sheetId="9" r:id="rId7"/>
+    <sheet name="Задача 5" sheetId="9" r:id="rId7"/>
+    <sheet name="Задача 6" sheetId="10" r:id="rId8"/>
+    <sheet name="Задача 7" sheetId="11" r:id="rId9"/>
+    <sheet name="Задача 8" sheetId="12" r:id="rId10"/>
+    <sheet name="Задача 9" sheetId="13" r:id="rId11"/>
+    <sheet name="Задача 10" sheetId="14" r:id="rId12"/>
+    <sheet name="Задача 11" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Задание 1'!$B$13:$E$15</definedName>
+    <definedName name="solver_adj" localSheetId="11" hidden="1">'Задача 10'!$G$2:$G$3</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Задача 2'!$B$13:$D$15</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Задача 3'!$B$12:$E$13</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Задача 4'!$B$12:$E$14</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Задача 5'!$B$12:$B$15</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Задача 6'!$B$3:$E$3</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'Задача 7'!$I$2:$I$3</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'Задача 8'!$E$10:$E$11</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">'Задача 9'!$F$6:$F$7</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$13:$F$16</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Задание 1'!$B$13:$E$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="11" hidden="1">'Задача 10'!$E$7</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Задача 2'!$B$13:$D$15</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Задача 3'!$B$12:$E$13</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Задача 4'!$B$12:$E$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Задача 5'!$B$12:$B$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Задача 6'!$B$3:$E$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Задача 7'!$L$2</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'Задача 8'!$D$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="10" hidden="1">'Задача 9'!$F$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$13:$F$16</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Задание 1'!$B$16:$E$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="11" hidden="1">'Задача 10'!$E$8</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Задача 2'!$B$16:$D$16</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Задача 3'!$B$14:$E$14</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Задача 4'!$B$15:$E$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Задача 5'!$D$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Задача 6'!$F$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Задача 7'!$L$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'Задача 8'!$D$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="10" hidden="1">'Задача 9'!$F$11</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$B$17:$F$17</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Задание 1'!$F$13:$F$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="11" hidden="1">'Задача 10'!$G$2</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Задача 2'!$E$13:$E$15</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Задача 3'!$F$12:$F$13</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Задача 4'!$F$12:$F$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Задача 5'!$E$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'Задача 6'!$F$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="10" hidden="1">'Задача 9'!$F$12</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$G$13:$G$16</definedName>
+    <definedName name="solver_lhs4" localSheetId="11" hidden="1">'Задача 10'!$G$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Задача 5'!$F$16</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'Задача 6'!$F$9</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="11" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Задание 0'!$B$22</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Задание 0 - не то'!$B$22</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Задание 1'!$B$19</definedName>
+    <definedName name="solver_opt" localSheetId="11" hidden="1">'Задача 10'!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Задача 2'!$B$19</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'Задача 3'!$B$17</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'Задача 4'!$B$18</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Задача 5'!$C$16</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Задача 6'!$F$5</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'Задача 7'!$A$11</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'Задача 8'!$G$10</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">'Задача 9'!$I$2</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$20</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="11" hidden="1">'Задача 10'!$D$3</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'Задача 7'!$E$2</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">'Задача 8'!$B$2</definedName>
+    <definedName name="solver_rhs1" localSheetId="10" hidden="1">'Задача 9'!$B$6</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Задание 1'!$B$17:$E$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="11" hidden="1">'Задача 10'!$D$4</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Задача 2'!$B$17:$D$17</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Задача 3'!$B$15:$E$15</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Задача 4'!$B$16:$E$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'Задача 5'!$F$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'Задача 6'!$H$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'Задача 7'!$E$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'Задача 8'!$B$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="10" hidden="1">'Задача 9'!$B$7</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$B$18:$F$18</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Задание 1'!$G$13:$G$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="11" hidden="1">3</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Задача 2'!$F$13:$F$15</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Задача 3'!$G$12:$G$13</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Задача 4'!$G$12:$G$14</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">'Задача 5'!$F$4</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">'Задача 6'!$H$11</definedName>
+    <definedName name="solver_rhs3" localSheetId="10" hidden="1">'Задача 9'!$B$8</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$H$13:$H$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="11" hidden="1">'Задача 10'!$G$4</definedName>
+    <definedName name="solver_rhs4" localSheetId="6" hidden="1">'Задача 5'!$F$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">'Задача 6'!$H$9</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="10" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -229,7 +454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
   <si>
     <t>Стоимость перевозок</t>
   </si>
@@ -259,6 +484,258 @@
   </si>
   <si>
     <t>целевая ячейка</t>
+  </si>
+  <si>
+    <t>Ресурс</t>
+  </si>
+  <si>
+    <t>Вид продукции</t>
+  </si>
+  <si>
+    <t>П1</t>
+  </si>
+  <si>
+    <t>П2</t>
+  </si>
+  <si>
+    <t>П3</t>
+  </si>
+  <si>
+    <t>П4</t>
+  </si>
+  <si>
+    <t>Объем ресурса</t>
+  </si>
+  <si>
+    <t>Трудовой</t>
+  </si>
+  <si>
+    <t>Сырьё</t>
+  </si>
+  <si>
+    <t>Оборудование</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Расход ресурса</t>
+  </si>
+  <si>
+    <t>Трудового</t>
+  </si>
+  <si>
+    <t>Сырья</t>
+  </si>
+  <si>
+    <t>Обородования</t>
+  </si>
+  <si>
+    <t>Общая стоимость</t>
+  </si>
+  <si>
+    <t>Переменные</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>значение</t>
+  </si>
+  <si>
+    <t>коэф. ЦФ</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>значение ЦФ</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>вид</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>Левая часть</t>
+  </si>
+  <si>
+    <t>Знак</t>
+  </si>
+  <si>
+    <t>Правая часть</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Огран.1</t>
+  </si>
+  <si>
+    <t>Огран.2</t>
+  </si>
+  <si>
+    <t>Огран.3</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Стоимость производства</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Количество продуктов</t>
+  </si>
+  <si>
+    <t>Стоимость для всех товаров</t>
+  </si>
+  <si>
+    <t>Суммарная прибыль</t>
+  </si>
+  <si>
+    <t>Дневные ограничения</t>
+  </si>
+  <si>
+    <t>Жиры</t>
+  </si>
+  <si>
+    <t>Калории</t>
+  </si>
+  <si>
+    <t>На 1 кг продукта:</t>
+  </si>
+  <si>
+    <t>Калорий</t>
+  </si>
+  <si>
+    <t>Жиров</t>
+  </si>
+  <si>
+    <t>Количество жиров</t>
+  </si>
+  <si>
+    <t>Количество калорий</t>
+  </si>
+  <si>
+    <t>Ограничение работы машин</t>
+  </si>
+  <si>
+    <t>Общая прибыль</t>
+  </si>
+  <si>
+    <t>Количество товара</t>
+  </si>
+  <si>
+    <t>Количество затраченных часов</t>
+  </si>
+  <si>
+    <t>Исходный продукт</t>
+  </si>
+  <si>
+    <t>Расход исходных продуктов (на 1 т материалов)</t>
+  </si>
+  <si>
+    <t>Материал А</t>
+  </si>
+  <si>
+    <t>Материал B</t>
+  </si>
+  <si>
+    <t>Максимально возможный запас</t>
+  </si>
+  <si>
+    <t>Оптовые цены (1 т)</t>
+  </si>
+  <si>
+    <t>Спрос на материалы</t>
+  </si>
+  <si>
+    <t>A+1</t>
+  </si>
+  <si>
+    <t>Цены в день</t>
+  </si>
+  <si>
+    <t>A и B</t>
+  </si>
+  <si>
+    <t>Израсходованно материалов</t>
+  </si>
+  <si>
+    <t>Хлеб</t>
+  </si>
+  <si>
+    <t>Соя</t>
+  </si>
+  <si>
+    <t>Сушеная рыба</t>
+  </si>
+  <si>
+    <t>Фрукты</t>
+  </si>
+  <si>
+    <t>Молоко</t>
+  </si>
+  <si>
+    <t>Белки</t>
+  </si>
+  <si>
+    <t>Углеводы</t>
+  </si>
+  <si>
+    <t>Витамины</t>
+  </si>
+  <si>
+    <t>Минимальные ограничения диеты</t>
   </si>
 </sst>
 </file>
@@ -294,10 +771,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,30 +1076,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -714,33 +1197,33 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -942,6 +1425,646 @@
   <ignoredErrors>
     <ignoredError sqref="B17:F17 G13:G16" formulaRange="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76316777-5083-49AF-A06B-4DBF3A8D5E29}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="G10">
+        <f>E10*B10+E11*B11</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>C6*E10+E11*C7</f>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>E11*B7+E10*B6</f>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C445FBE2-5E0C-4257-8969-F7994A35F383}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <f>G2*F6+G3*F7</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <f>F6*B2+F7*B3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <f>F6*C2+F7*C3</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <f>F6*D2+F7*D3</f>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3CD2D4-0017-4701-9353-83592224E680}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4">
+        <f>G2+1</f>
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>4000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f>G2*B3+G3*C3</f>
+        <v>6.9999999999999982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>3000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <f>G2*B4+G3*C4</f>
+        <v>7.9999999999999982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <f>G2*B7+G3*B8</f>
+        <v>9999.9999999999982</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7ABF7D-5290-41C5-A0D4-A1658440DDEB}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -961,30 +2084,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -1050,33 +2173,33 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -1294,30 +2417,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -1383,31 +2506,31 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -1581,28 +2704,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -1656,29 +2779,29 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -1830,30 +2953,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -1902,31 +3025,31 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -2072,28 +3195,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -2159,31 +3282,31 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -2341,12 +3464,637 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF640621-193E-4D25-B6FF-C865F3E5E425}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>10.000000000000002</v>
+      </c>
+      <c r="C12">
+        <f>B12*B6</f>
+        <v>600.00000000000011</v>
+      </c>
+      <c r="D12">
+        <f>B12*B3</f>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="E12">
+        <f>B12*B4</f>
+        <v>60.000000000000014</v>
+      </c>
+      <c r="F12">
+        <f>B12*B5</f>
+        <v>40.000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>B13*C6</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>B13*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>B13*C4</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>B13*C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="C14">
+        <f>B14*D6</f>
+        <v>719.99999999999989</v>
+      </c>
+      <c r="D14">
+        <f>B14*D3</f>
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="E14">
+        <f>B14*D4</f>
+        <v>23.999999999999996</v>
+      </c>
+      <c r="F14">
+        <f>B14*D5</f>
+        <v>59.999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>B15*E6</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>B15*E3</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>B15*E4</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>B15*E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C12:C15)</f>
+        <v>1320</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D12:D15)</f>
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E12:E15)</f>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F12:F15)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F263B14-9442-4F97-B55B-4931FEE50BCF}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>97.716319824753597</v>
+      </c>
+      <c r="C3">
+        <v>448.54326396495077</v>
+      </c>
+      <c r="D3">
+        <v>34.802847754654998</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>130.5</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>87.8</v>
+      </c>
+      <c r="F5">
+        <f>B5*B3+C5*C3+D5*D3+E5*E3</f>
+        <v>23671.80449069004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>-1.8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <f>B9*B3+C9*C3+D9*D3+E9*E3</f>
+        <v>756</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <f>B10*B3+C10*C3+D10*D3+E10*E3</f>
+        <v>450</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>-1.5</v>
+      </c>
+      <c r="D11">
+        <v>10.4</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f>B11*B3+C11*C3+D11*D3+E3*E11</f>
+        <v>80.000000000000227</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2674B9B-9941-47E7-97AB-61B142165623}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>1700</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2">
+        <v>300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2">
+        <f>I2*B3+I3*B4</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f>160*60</f>
+        <v>9600</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3">
+        <f>I2*C3+I3*C4</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>I2*B7+I3*B8</f>
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Лабораторные работы/№ 5/№ 5.xlsx
+++ b/Лабораторные работы/№ 5/№ 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разработки разработчика\Lesson_repo\Лабораторные работы\№ 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47763420-12A7-46D9-9FDA-54D298EE5EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5F4BB5-903C-4862-BB5C-10AF120C1C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,7 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Задание 1'!$B$13:$E$15</definedName>
     <definedName name="solver_adj" localSheetId="11" hidden="1">'Задача 10'!$G$2:$G$3</definedName>
+    <definedName name="solver_adj" localSheetId="12" hidden="1">'Задача 11'!$B$15:$B$19</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Задача 2'!$B$13:$D$15</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Задача 3'!$B$12:$E$13</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Задача 4'!$B$12:$E$14</definedName>
@@ -41,6 +42,7 @@
     <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$13:$F$16</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
@@ -52,6 +54,7 @@
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
@@ -64,6 +67,7 @@
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
@@ -75,6 +79,7 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
@@ -86,6 +91,7 @@
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
@@ -97,6 +103,7 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Задание 1'!$B$13:$E$15</definedName>
     <definedName name="solver_lhs1" localSheetId="11" hidden="1">'Задача 10'!$E$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="12" hidden="1">'Задача 11'!$E$16</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Задача 2'!$B$13:$D$15</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Задача 3'!$B$12:$E$13</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Задача 4'!$B$12:$E$14</definedName>
@@ -108,6 +115,7 @@
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$13:$F$16</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Задание 1'!$B$16:$E$16</definedName>
     <definedName name="solver_lhs2" localSheetId="11" hidden="1">'Задача 10'!$E$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="12" hidden="1">'Задача 11'!$E$17</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Задача 2'!$B$16:$D$16</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Задача 3'!$B$14:$E$14</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Задача 4'!$B$15:$E$15</definedName>
@@ -119,6 +127,7 @@
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$B$17:$F$17</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Задание 1'!$F$13:$F$15</definedName>
     <definedName name="solver_lhs3" localSheetId="11" hidden="1">'Задача 10'!$G$2</definedName>
+    <definedName name="solver_lhs3" localSheetId="12" hidden="1">'Задача 11'!$E$18</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Задача 2'!$E$13:$E$15</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Задача 3'!$F$12:$F$13</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Задача 4'!$F$12:$F$14</definedName>
@@ -127,10 +136,12 @@
     <definedName name="solver_lhs3" localSheetId="10" hidden="1">'Задача 9'!$F$12</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$G$13:$G$16</definedName>
     <definedName name="solver_lhs4" localSheetId="11" hidden="1">'Задача 10'!$G$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="12" hidden="1">'Задача 11'!$E$19</definedName>
     <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Задача 5'!$F$16</definedName>
     <definedName name="solver_lhs4" localSheetId="7" hidden="1">'Задача 6'!$F$9</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
@@ -142,6 +153,7 @@
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
@@ -153,6 +165,7 @@
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
@@ -164,6 +177,7 @@
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
@@ -176,6 +190,7 @@
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
@@ -187,6 +202,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
@@ -199,6 +215,7 @@
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="11" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
@@ -210,6 +227,7 @@
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
@@ -222,6 +240,7 @@
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Задание 0 - не то'!$B$22</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Задание 1'!$B$19</definedName>
     <definedName name="solver_opt" localSheetId="11" hidden="1">'Задача 10'!$B$11</definedName>
+    <definedName name="solver_opt" localSheetId="12" hidden="1">'Задача 11'!$E$15</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Задача 2'!$B$19</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'Задача 3'!$B$17</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'Задача 4'!$B$18</definedName>
@@ -233,6 +252,7 @@
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$20</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
@@ -244,6 +264,7 @@
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
@@ -255,6 +276,7 @@
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
@@ -266,6 +288,7 @@
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
@@ -277,6 +300,7 @@
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
@@ -285,10 +309,12 @@
     <definedName name="solver_rel3" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="11" hidden="1">'Задача 10'!$D$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="12" hidden="1">'Задача 11'!$B$9</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
@@ -300,6 +326,7 @@
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Задание 1'!$B$17:$E$17</definedName>
     <definedName name="solver_rhs2" localSheetId="11" hidden="1">'Задача 10'!$D$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="12" hidden="1">'Задача 11'!$B$10</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Задача 2'!$B$17:$D$17</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Задача 3'!$B$15:$E$15</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Задача 4'!$B$16:$E$16</definedName>
@@ -311,6 +338,7 @@
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$B$18:$F$18</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Задание 1'!$G$13:$G$15</definedName>
     <definedName name="solver_rhs3" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rhs3" localSheetId="12" hidden="1">'Задача 11'!$B$11</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Задача 2'!$F$13:$F$15</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Задача 3'!$G$12:$G$13</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Задача 4'!$G$12:$G$14</definedName>
@@ -319,10 +347,12 @@
     <definedName name="solver_rhs3" localSheetId="10" hidden="1">'Задача 9'!$B$8</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$H$13:$H$16</definedName>
     <definedName name="solver_rhs4" localSheetId="11" hidden="1">'Задача 10'!$G$4</definedName>
+    <definedName name="solver_rhs4" localSheetId="12" hidden="1">'Задача 11'!$B$12</definedName>
     <definedName name="solver_rhs4" localSheetId="6" hidden="1">'Задача 5'!$F$5</definedName>
     <definedName name="solver_rhs4" localSheetId="7" hidden="1">'Задача 6'!$H$9</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
@@ -334,6 +364,7 @@
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
@@ -345,6 +376,7 @@
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
@@ -356,6 +388,7 @@
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
@@ -367,6 +400,7 @@
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
@@ -378,6 +412,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
@@ -389,6 +424,7 @@
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
@@ -401,6 +437,7 @@
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
@@ -413,6 +450,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
@@ -425,6 +463,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
@@ -454,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
   <si>
     <t>Стоимость перевозок</t>
   </si>
@@ -736,6 +775,12 @@
   </si>
   <si>
     <t>Минимальные ограничения диеты</t>
+  </si>
+  <si>
+    <t>Суш. рыба</t>
+  </si>
+  <si>
+    <t>Общие параметры</t>
   </si>
 </sst>
 </file>
@@ -1879,12 +1924,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1892,15 +1937,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7ABF7D-5290-41C5-A0D4-A1658440DDEB}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>85</v>
       </c>
@@ -1914,13 +1964,10 @@
         <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1940,7 +1987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1960,7 +2007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1980,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -2000,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -2028,7 +2075,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -2036,7 +2083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2044,7 +2091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2052,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -2060,9 +2107,96 @@
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <f>B15*B6+B16*C6+B17*D6+B18*E6+B19*F6</f>
+        <v>150.00000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <f>B15*B2+B16*C2+B17*D2+B18*E2+B19*F2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17">
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17">
+        <f>B15*B3+B16*C3+B17*D3+B18*E3+B19*F3</f>
+        <v>30.000000000000011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>5.0000000000000027</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <f>B15*B4+B16*C4+B17*D4+B18*E4+B19*F4</f>
+        <v>15.833333333333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19">
+        <f>B15*B5+B16*C5+B17*D5+B18*E5+B19*F5</f>
+        <v>40.000000000000014</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2406,7 +2540,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
